--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\JupyterProjects\MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B8334E-AAF1-4D5F-9DF6-B124A2C2BD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4819E1-079A-4E87-B987-41D5F30082C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30C553D7-4B69-43AB-90F2-644BD565D466}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
-  <si>
-    <t>Check_pain</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="9">
   <si>
     <t>Leg_pain</t>
   </si>
@@ -55,6 +52,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Chest_pain</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118AD7CB-E6AD-403C-BD03-C2E658C2B2E1}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,162 +425,482 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
